--- a/United Civil/34746/_res_COMB.xlsx
+++ b/United Civil/34746/_res_COMB.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\United Civil\34746\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B0D63-36F5-41B4-A4F8-F27E29C7A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A65ED6-3E9F-4CC7-AC07-0C16AD824526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="645" windowWidth="28890" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9345" yWindow="1320" windowWidth="28890" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res_ITP_1_Inspection_and_Test_P" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res_ITP_1_Inspection_and_Test_P!$A$1:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res_ITP_1_Inspection_and_Test_P!$A$1:$H$602</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="309">
   <si>
     <t>type</t>
   </si>
@@ -77,34 +77,892 @@
     <t>itp</t>
   </si>
   <si>
-    <t>Hardfill GAP65</t>
-  </si>
-  <si>
-    <t>SPECIFICATION REFERENCE - Arapohue Road RP2840 - Mechanically Stabilised Earth Wall - Technical Specification CO203.4.3</t>
-  </si>
-  <si>
-    <t>TEST/TASK REQUIRED - IANZ Test certificates</t>
-  </si>
-  <si>
-    <t>INSPECTION BY - UCCL, KDC</t>
-  </si>
-  <si>
-    <t>TASK TIMING OR TASK FREQUENCY - 1 test per source submitted 2 weeks prior to MSE Construction</t>
-  </si>
-  <si>
-    <t>ACCEPTANCE CRITERIA - GAP65 shall meet the grading from Table 203.1, a crushing resistance greater than or equal to 120kN and have a weathering resistance of AA,AB,AC,BA,BB or CA</t>
-  </si>
-  <si>
-    <t>UCCL - H</t>
-  </si>
-  <si>
-    <t>Engineer/Client - R</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>Pavement and Drainage ITP</t>
+    <t>ITP001 - Establishment and Initial Set Out Rev2</t>
+  </si>
+  <si>
+    <t>1 - Award of Contract</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Award of Contract</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Letter of Award</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Letter of Award</t>
+  </si>
+  <si>
+    <t>Supervisor, Foreman or Subcontractor -</t>
+  </si>
+  <si>
+    <t>Project Manager or Delegated Person - R</t>
+  </si>
+  <si>
+    <t>2 - Management Plans</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Project Commencement</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Submission to engineer to the contract</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - ‘SSSP, EMP, QCP, TMP, JSA</t>
+  </si>
+  <si>
+    <t>Project Manager or Delegated Person - P</t>
+  </si>
+  <si>
+    <t>Engineer’s Representative - R</t>
+  </si>
+  <si>
+    <t>3 - Insurances</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Current certificate</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Current certificate</t>
+  </si>
+  <si>
+    <t>4 - Bond</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Prior to First Progress Claim</t>
+  </si>
+  <si>
+    <t>5 - Dilapidation Survey</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Photos and description of scope of work prior to commencement of physical works.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Photos of footpath, Berm, pavement and individual properties.</t>
+  </si>
+  <si>
+    <t>Supervisor, Foreman or Subcontractor - P</t>
+  </si>
+  <si>
+    <t>6 - Notification to Residents</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Project Commencement, Notification</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Letter to be distributed to affected residents prior to commencement of work.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Letter to residents</t>
+  </si>
+  <si>
+    <t>7 - Information Sign Boards</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Project Commencement, Notification – Sign Boards to be supplied and installed</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per WDCEES</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Photos</t>
+  </si>
+  <si>
+    <t>Engineer’s Representative - W</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Design of vertical and horizontal alignment and locations of components</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Submission of drawings to engineer for review as per T- WES0001 – Preliminary and General, Section2.4.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Acceptance</t>
+  </si>
+  <si>
+    <t>Engineer’s Representative - H</t>
+  </si>
+  <si>
+    <t>8 - Initial Set out</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Set out of manhole positions and alignment of new line, etc</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per drawings</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Surveyor to set out</t>
+  </si>
+  <si>
+    <t>Supervisor, Foreman or Subcontractor - R</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Working at depths greater than 1.5m</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Notification to Work safe prior to commencement of work</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Copy of Notification to Work safe</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Working around Overhead lines</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Notify Northpower prior to works starting</t>
+  </si>
+  <si>
+    <t>Supervisor, Foreman or Subcontractor - p</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Working around Gas lines</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Notify First Gas</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Standover and permit</t>
+  </si>
+  <si>
+    <t>10 - B4UDig</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Submit B4UDig Notification</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - B4UDig Submission confirmation – Mark out – Close Approach Permits</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - B4UDig Plans and sequence numbers – Mark out – Close Approach Permits</t>
+  </si>
+  <si>
+    <t>11 - Environmental Controls</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Environmental Controls in Place</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Environmental Controls in place as per EMP/CEMP</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - CEMP, Photos</t>
+  </si>
+  <si>
+    <t>12 - Access Permits</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Complete permits prior to commencement of works in WWTP</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Permit to Occupy</t>
+  </si>
+  <si>
+    <t>13 - Temporary Works</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Temporary work provisions in place as per relevant approved SWMS or JSA prior to commencement of works</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Relevant WMS, SWMS or JSA</t>
+  </si>
+  <si>
+    <t>14 - Stockpile Locations</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Agree Stockpile locations with engineer</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Suitable stockpile locations reviewed and agreed with engineer</t>
+  </si>
+  <si>
+    <t>15 - Dewatering</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Pumping water from trench</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Submit Method Statement, Install temp pond, manage clean discharge, as per T-WES 00011 – Earthworks, Reinstatement and Dewatering</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Method Statement Acceptance</t>
+  </si>
+  <si>
+    <t>ITP001 - Establishment and Initial Set Out</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>9 - Notification of Hazards (1)</t>
+  </si>
+  <si>
+    <t>9 - Notification of Hazards (2)</t>
+  </si>
+  <si>
+    <t>9 - Notification of Hazards (3)</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Close approach permit and Standover</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Set up of temporary work provisions such as:</t>
+  </si>
+  <si>
+    <t>– Shoring Protection</t>
+  </si>
+  <si>
+    <t>– Temporary Access provisions</t>
+  </si>
+  <si>
+    <t>– Dewatering</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>ITP002 - DN710, DN630 and DN450 PE Pipe and Welding</t>
+  </si>
+  <si>
+    <t>ITP002 - DN710, DN630 and DN450 PE Pipe and Welding Rev1</t>
+  </si>
+  <si>
+    <t>1 - PE Pipe Jointing</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Welding – Butt and EF Joints</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per T-WES 04110 – Fusion jointing of PE Pipes Specifications</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Submit WMS as per T-WES 04110 Section 2.4 and 2.5</t>
+  </si>
+  <si>
+    <t>2 - DN710 pipe material</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Supply of Resin QA data</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Certification from manufacturer that materials comply with the manufacturer’s specification as per project specs as per T-WES 00013 – Pressure Pipelines Supply, Installation and Testing Specification Section 2.4</t>
+  </si>
+  <si>
+    <t>3 - DN710 Pipe Welding</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Construction</t>
+  </si>
+  <si>
+    <t>4 - DN710 -Testing of butt Welds</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Butt Welding Test</t>
+  </si>
+  <si>
+    <t>5 - DN710 - Testing of EF Welds</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Joining of Strings</t>
+  </si>
+  <si>
+    <t>6 - DN630 - Pipe material</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Certification from manufacturer that materials comply with the manufacturer’s specification as per project specs. As per T-WES 00013 – Pressure Pipelines Supply, Installation and Testing Specification Section 2.4</t>
+  </si>
+  <si>
+    <t>7 - DN630 Pipe Welding</t>
+  </si>
+  <si>
+    <t>8 - DN630 - Testing of butt Welds</t>
+  </si>
+  <si>
+    <t>9 - DN630 - Testing of EF Welds</t>
+  </si>
+  <si>
+    <t>10 - DN450 - Pipe material</t>
+  </si>
+  <si>
+    <t>11 - DN450 Pipe Welding</t>
+  </si>
+  <si>
+    <t>12 - DN450 - Testing of butt Welds</t>
+  </si>
+  <si>
+    <t>13 - DN450 - Testing of EF Welds</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - QA Documents, As per Section 2.4.2.3 – submit prior to procurement.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - All weld parameters are to be recorded for each separate weld as well as the welder, weld number, location, date and time of weld and air temperature</t>
+  </si>
+  <si>
+    <t>○ All butt welds to be undertaken in accordance with the manufacturer’s recommendations.</t>
+  </si>
+  <si>
+    <t>○ Welder to have qualification certificates.</t>
+  </si>
+  <si>
+    <t>○ As per T-WES 04110 – Fusion Jointing of PE Pipes</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - EF Weld Inspection joints Approved WMS</t>
+  </si>
+  <si>
+    <t>○ Welding machine certified and calibrated with data logging capacity – submit calibration certs prior to start.</t>
+  </si>
+  <si>
+    <t>○ Welder to supply Data Logger Information etc for butt-welding.</t>
+  </si>
+  <si>
+    <t>○ Supply info as per Section 2.2 and 2.3- Welder qualifications and info.</t>
+  </si>
+  <si>
+    <t>○ Maintain site records as per Section 3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Tests to be carried out to see Ductile or Tensile Failure as per WDCEES specifications. T-WES 04110 Section 3.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Test Results</t>
+  </si>
+  <si>
+    <t>○ Butt Welding information to be provided with test weld, copy of information to be kept on site in QA folder, Results / Feedback to be supplied to WDC.</t>
+  </si>
+  <si>
+    <t>○ Frequency as per T-WES 04110 - Section 3.1.4</t>
+  </si>
+  <si>
+    <t>○ Perform pre-construction test as per Section 3.1.1</t>
+  </si>
+  <si>
+    <t>○ Test 2 welds from first 50 welds as per Section 3.1.4</t>
+  </si>
+  <si>
+    <t>○ EF Welding information to be provided with test weld, copy of information to be kept on site in QA folder, Results / Feedback to be supplied to WDC.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - QA Documents, As per section 2.4.2.3 – submit prior to procurement.</t>
+  </si>
+  <si>
+    <t>○ Welder to have qualification certificates</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Tests to be carried out to see Ductile or Tensile Failure as per WDCEES specifications. T-WES 04110 Section 3.2.</t>
+  </si>
+  <si>
+    <t>ITP003 - Concrete Manhole - Components Installation Rev2</t>
+  </si>
+  <si>
+    <t>ITP003 - Concrete Manhole - Components Installation</t>
+  </si>
+  <si>
+    <t>1 - Service Location</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Potholing of Existing Services</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Excavation of services to be carried out in accordance with service providers recommendations.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - As per excavation permit</t>
+  </si>
+  <si>
+    <t>Project Manager or Delegated Person - W</t>
+  </si>
+  <si>
+    <t>2 - Survey &amp; Setting Out</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Set out of the Works</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - IFC Drawings and Specifications Approval Prior to Setout</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Survey Records - Records</t>
+  </si>
+  <si>
+    <t>3 - Excavation</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Installation of Manholes</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Material Supply</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Foundation Bedding</t>
+  </si>
+  <si>
+    <t>5 - Concrete Blocks (Thrust blocks, Anti-Scour)</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Construction of Thrust Block</t>
+  </si>
+  <si>
+    <t>6 -</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Pre-pour inspection</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - At each thrust block</t>
+  </si>
+  <si>
+    <t>7 - Backfill</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Backfill Material</t>
+  </si>
+  <si>
+    <t>8 - As Built Records &amp; Asset Register</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Compile all Quality Documentation in accordance with the Particular Specification</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - As Built Drawings, Asset Information Schedule,</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Trenching, bedding and backfilling shall be as per WDCEES or T- WES 00011 – Earthworks, Reinstatement and Dewatering Section 3.2</t>
+  </si>
+  <si>
+    <t>○ Notify Worksafe</t>
+  </si>
+  <si>
+    <t>○ Refer Dewatering Method Statement if applicable T-WES 00011 Section3.5</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Each Manhole, Aggregate dockets and material acceptance by engineer</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - The requirements for Manholes are shown generally on the Drawings. Where not detailed they shall be to the local authority standards. New manholes to have 150mm Nib around the pre-cast base – Manholes deeper shall be fitted with stainless steel rungs.</t>
+  </si>
+  <si>
+    <t>○ Manhole Covers shall be Class D if in trafficable areas.</t>
+  </si>
+  <si>
+    <t>○ Refer T-WES 00013 Section 2.8 and Section 2.9</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Material Acceptance by engineer, Delivery Dockets Photos</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Material Acceptance by Engineer, Per Installation - Photos</t>
+  </si>
+  <si>
+    <t>4 - General Requirements (1)</t>
+  </si>
+  <si>
+    <t>4 - General Requirements (2)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - The manhole shall be constructed or placed on a levelling course of a 100mm minimum layer of compacted GAP20 or concrete. Refer T-WES 00013 Section 2.9.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Design Approval Prior to installation</t>
+  </si>
+  <si>
+    <t>– Concrete Strength to be as per design documents as per T-WES 00013 Section 3.1.12 &amp; 3.1.13, also refer ITP4</t>
+  </si>
+  <si>
+    <t>– Confirm dimensions as per design detail (EngPro Report)</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Per Supply Delivery Dockets. Photos.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Engineer invited to carry out pre-pour inspection prior to concrete placement as per T-WES 00013 Section 3.1.12</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - The type of bedding and support required including the degree of compaction as defined in T-WES 00013 Section 2.9.</t>
+  </si>
+  <si>
+    <t>– Backfill to be as per design drawings (see cross section).</t>
+  </si>
+  <si>
+    <t>– Confirm stabilized bedding as per design (see long sections)</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Material Dockets, Compaction as per T-WES 00013 Section 3.1.5, Photos, Material Dockets</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Specification</t>
+  </si>
+  <si>
+    <t>○ As Built Drawings: 1 set electronic pdf format; 1 set of hard copy A3 plans and CAD.</t>
+  </si>
+  <si>
+    <t>○ Drawings to comply with WDC standards and be certified by the UCCL Quality Manager</t>
+  </si>
+  <si>
+    <t>○ An electronic copy of the As-builts shall be submitted prior to the Engineer prior to issue of the PC Certificate</t>
+  </si>
+  <si>
+    <t>ITP004 - Pipeline Installation and Trench Reinstatement/Backfill Rev1</t>
+  </si>
+  <si>
+    <t>ITP004 - Pipeline Installation and Trench Reinstatement/Backfill</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - As required</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Set Out and Mark Up</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Surveyor to confirm alignment of new pipeline, overlay drawing to be placed over the As-built layer to ensure that design is to work (Please note GIS is not 100% - information to be clarified from potholing).</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Submit Methodology for Pipelaying, Concrete Work, Jointing and Backfilling</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Submit methodology as per T-WES 00013 Section 3.1.1</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Prior to starting</t>
+  </si>
+  <si>
+    <t>3 - Construction of Pipeline with Fusion Welded Joints</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Butt Welding of Pipes above or below ground, all joints to be welded.</t>
+  </si>
+  <si>
+    <t>Supervisor, Foreman or Subcontractor - W</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Material supply</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Delivery Dockets,</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Inspection of Trench</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Engineer to inspect trench prior to pipe install and prior to backfilling.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Photos, Engineers Signoff</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Per Supply Delivery Dockets.</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Backfilling of open trench</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Service Separation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Confirm compliant as per WDC requirements, or as per design allowance barrier for tolerances less than WDC allowance, or relocate service to enable tolerance</t>
+  </si>
+  <si>
+    <t>5 - Flanges</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Install flanged connections</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Photos etc as evidence. Engineer to witness</t>
+  </si>
+  <si>
+    <t>6 - Testing</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Testing Data Sheets</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Materials</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Approval from engineer prior to procurement</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Installation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Flange connection s as per T-WES 00011 Section 3.1.14</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Engineer to witness first flange</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Prior to backfill/ Reinstatement</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Samples from the Quarry, and test results from lab</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Backfill Subbase/ Embedment Zone</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Nuke results recorded. Material Dockets</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Backfill Basecourse</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Pre seal Inspection</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Photos, Test results</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Reinstate Chipseal/AC</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per NZTA P/3 or NZTA M/10, and T-WES 00011 Sections 3.4.7 &amp; 3.4.8</t>
+  </si>
+  <si>
+    <t>10 - Commissioning</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Cutover to new lines</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Footpaths</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Material Dockets Photos</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Driveways</t>
+  </si>
+  <si>
+    <t>ACTIVITY TASK - Berms</t>
+  </si>
+  <si>
+    <t>12 - As Built Records &amp; Asset Register</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Design Approval prior to setout</t>
+  </si>
+  <si>
+    <t>○ Mark out to be carried out prior to commencement of works – Alignment to mirror construction drawings unless alternative approval sorted and confirmed.</t>
+  </si>
+  <si>
+    <t>2 - Route Alignment (2)</t>
+  </si>
+  <si>
+    <t>2 - Route Alignment (1)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - To Align with ITP2 – Pipe and Welding</t>
+  </si>
+  <si>
+    <t>○ All welds are to be fully logged by the use of data logging equipment. All weld parameters are to be recorded for each separate weld as well as the welder, weld number, location, date and time of weld and air temperature</t>
+  </si>
+  <si>
+    <t>○ All butt welds to be undertaken in accordance with the manufacturer’s recommendations</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Approved Welding procedure WMS, Test Weld to be provided at commencement of the works – Refer ITP2 for Frequency</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Material Acceptance by engineer prior to starting</t>
+  </si>
+  <si>
+    <t>○ Certification from manufacturer that materials comply with the manufacturer’s specification as per T-WES 00011 Section 2</t>
+  </si>
+  <si>
+    <t>4 - New Pressure PE Sewer pipe in Open trench (1)</t>
+  </si>
+  <si>
+    <t>4 - New Pressure PE Sewer pipe in Open trench (2)</t>
+  </si>
+  <si>
+    <t>4 - New Pressure PE Sewer pipe in Open trench (3)</t>
+  </si>
+  <si>
+    <t>4 - New Pressure PE Sewer pipe in Open trench (4)</t>
+  </si>
+  <si>
+    <t>4 - New Pressure PE Sewer pipe in Open trench (5)</t>
+  </si>
+  <si>
+    <t>4 - New Pressure PE Sewer pipe in Open trench (6)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Installation as per WDC Engineering Specification and AS/NZS 2566.2 Location and level of invert.</t>
+  </si>
+  <si>
+    <t>○ Compaction of bedding and Backfill, installation of PE Pipes shall comply with contract specs as per T- WES 00011 Section 3.2</t>
+  </si>
+  <si>
+    <t>○ Note separation as per T-WES 00013 Section 3.1.9</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Photos etc as evidence, Compaction test results as per T-WES 00011 Section 4.3.1</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Design Approval Prior to installation Concrete Strength to be as per design documents as per T-WES 00013 Section 3.1.12 &amp; 3.1.13, Also refer ITP 3.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - GAP 20 covered in layer of 200mm layers or approved alternative material.</t>
+  </si>
+  <si>
+    <t>○ No mechanical compaction until the pipe is covered by at least 300mm of material</t>
+  </si>
+  <si>
+    <t>○ Detector tape to be placed 200- 400mm below surface.</t>
+  </si>
+  <si>
+    <t>○ A detector tape is to be laid with the pipe.</t>
+  </si>
+  <si>
+    <t>○ As per T-WES 00011 Section 3.3, design and WDC EES 2022 Section5 Sheet 31&amp;32</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Photos etc as evidence, Compaction test results as per T-WES 00011 Section 4.3.1.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Visual inspection, Torgue values to comply, Bolts to be sufficient length, Four-part joint wrapping system as per T-WES 00013 Section 2.6.8 and 3.1.14</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Pressure main and manholes shall be tested using the procedure as given in Section 5 of the WDC EES and T-WES 00013 Section 4.5. Provide WMS for Testing Procedure.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per T-WES 00013 Section 2.5.4 and 2.5.5, Approved by engineer</t>
+  </si>
+  <si>
+    <t>7 - Valves (2)</t>
+  </si>
+  <si>
+    <t>7 - Valves (1)</t>
+  </si>
+  <si>
+    <t>8 - Pavements (1)</t>
+  </si>
+  <si>
+    <t>8 - Pavements (2)</t>
+  </si>
+  <si>
+    <t>8 - Pavements (3)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - MDD, Compaction curves to be done on GAP65 and TNZ40 with 1.5% lime submitted to engineer for approval as per T-WES 00011 Section 4.3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Reinstatement of road shall be Nuke tested at 20m centres at the centre of pavements on completion of the pavement surface preparation.</t>
+  </si>
+  <si>
+    <t>○ Compact to 95% of MDD at each layer.</t>
+  </si>
+  <si>
+    <t>○ NZTA M/4, B/2 and WDC EES 2022, As per T-WES 00013 Section 2.9</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Reinstatement of road shall be Nuke tested at 50m centres at the centre of pavements on completion of the pavement surface preparation.</t>
+  </si>
+  <si>
+    <t>○ Compact to 98% of MDD</t>
+  </si>
+  <si>
+    <t>○ NZTA M/4, B/2, Material as per T- WES 00011 Section 2.3 and NZTA M/4</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Material Test Results as per T-WES 00011 Section 2.3. Nuke results recorded Material Dockets.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per T-WES 00011 Section 3.4.4. Mosaic appearance, no ramps along edge.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Road String Sheets, QA from supplier/subcontractor. Material Dockets.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per T-WES 00013 Section 5</t>
+  </si>
+  <si>
+    <t>○ Submit Cutover methodology</t>
+  </si>
+  <si>
+    <t>○ Duration and Timing with asset owner</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Approval of Cutover methodology, Staging approval by engineer and client</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per T-WES 00011 Section 3.4.10 and per WDC EES Section 3.3.7.3</t>
+  </si>
+  <si>
+    <t>○ Min 1.2m section replacement or 300mm wider than trench</t>
+  </si>
+  <si>
+    <t>○ 20Mpa concrete as per WDC EES Section 3.3.7.3</t>
+  </si>
+  <si>
+    <t>○ U5 Finish Light Broom</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per T-WES 00011 Section 3.4.12 and per WDC EES Section 3.3.7.3</t>
+  </si>
+  <si>
+    <t>○ To match existing 30Mpa Concrete as per WDC EES 2022 Section 3.3.7.3</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Material dockets Photos, Prepour inspection</t>
+  </si>
+  <si>
+    <t>11 - Reinstate Footpath, Driveways and Berms (1)</t>
+  </si>
+  <si>
+    <t>11 - Reinstate Footpath, Driveways and Berms (2)</t>
+  </si>
+  <si>
+    <t>11 - Reinstate Footpath, Driveways and Berms (3)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - As per WES 00011 Section 3.4.13 150mm topsoil. Apply grass seed.</t>
+  </si>
+  <si>
+    <t>CERTIFING DOCUMENTATION AND FREQUENCY - Photos, Material Dockets</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Particular Specification</t>
+  </si>
+  <si>
+    <t>○ The Contractor shall complete an Asset Register containing the following details for each new or altered asset;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Type,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Manufacturer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Model,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Serial Number,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Date of Manufacture,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Date of Installation,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Expected Life,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Co-Ordinates, and</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> – Cost.</t>
+  </si>
+  <si>
+    <t>9 - Road Seal (2)</t>
+  </si>
+  <si>
+    <t>9 - Road Seal (1)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +1105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,7 +1305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,13 +1476,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="16" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,10 +1844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1030,7 +1901,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,7 +1909,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,67 +1917,4377 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
+      <c r="H295" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
+      <c r="H390" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B412" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B439" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B447" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B448" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B449" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B453" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B455" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B459" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B482" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B490" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B538" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B539" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B545" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B553" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B555" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B563" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B564" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B567" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B574" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B577" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B578" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B586" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B587" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B598" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B599" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B600" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B602" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H602" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="checklist"/>
+        <filter val="checkpoint"/>
+        <filter val="section"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
